--- a/summary_data/dataset_summary.xlsx
+++ b/summary_data/dataset_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Desktop/sepsis/summary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACEE9EDC-9D03-A345-A80A-16F72640FDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABD59BF-A9C9-1D43-94A9-A3BEE585FA78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15440" xr2:uid="{B3C46B12-EA7A-B148-93D3-5F451F22A0C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B3C46B12-EA7A-B148-93D3-5F451F22A0C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t>Dataset accession</t>
   </si>
@@ -177,24 +177,12 @@
     <t>Adults with sepsis (CAPSOD study)</t>
   </si>
   <si>
-    <t>59.1 (stdev. 18.3)</t>
-  </si>
-  <si>
-    <t>68 (64%) Black, 32 (30%) White, 6 (6%) Unknown</t>
-  </si>
-  <si>
     <t>GSE63990</t>
   </si>
   <si>
     <t>Adults with bacterial infections and SIRS criteria</t>
   </si>
   <si>
-    <t>49 (range 14-88)</t>
-  </si>
-  <si>
-    <t>46 (66%) Black, 22 (31%) White, 2 (3%) Unknown</t>
-  </si>
-  <si>
     <t>GSE66890</t>
   </si>
   <si>
@@ -244,6 +232,54 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Viral.1.Bacterial.0</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Clinical Severity Score</t>
+  </si>
+  <si>
+    <t>APACHE</t>
+  </si>
+  <si>
+    <t>Source name</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>0&amp;6</t>
+  </si>
+  <si>
+    <t>SAPSII</t>
+  </si>
+  <si>
+    <t>White Blood Count</t>
+  </si>
+  <si>
+    <t>Blood WBC &amp; CSF WBC</t>
+  </si>
+  <si>
+    <t>White blood cells</t>
+  </si>
+  <si>
+    <t>leukocyte</t>
+  </si>
+  <si>
+    <t>APACHE&amp;SOFA</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Day (collection)</t>
+  </si>
+  <si>
+    <t>1~5</t>
   </si>
 </sst>
 </file>
@@ -279,13 +315,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05872954-9CD4-B044-9DEB-4DE85CBA105D}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,9 +651,9 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -644,10 +683,25 @@
         <v>3</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -679,10 +733,25 @@
         <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -712,10 +781,25 @@
         <v>11</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -745,10 +829,25 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="136" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -778,10 +877,25 @@
         <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>39</v>
@@ -811,10 +925,25 @@
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>46</v>
@@ -825,17 +954,17 @@
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1">
-        <v>59</v>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1">
         <v>78</v>
@@ -844,13 +973,28 @@
         <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>57</v>
@@ -862,7 +1006,7 @@
         <v>56</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
@@ -877,10 +1021,25 @@
         <v>14</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -911,11 +1070,26 @@
       <c r="J9" s="1">
         <v>7</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>65</v>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -945,10 +1119,25 @@
         <v>4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -978,16 +1167,31 @@
         <v>2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -1011,31 +1215,46 @@
         <v>9</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I13" s="1">
         <v>64</v>
@@ -1044,19 +1263,34 @@
         <v>6</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1">
         <f>SUM(C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13)</f>
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" ref="D14:J14" si="0">SUM(I2,I3,I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
+        <f t="shared" ref="I14:J14" si="0">SUM(I2,I3,I4,I5,I6,I7,I8,I9,I10,I11,I12,I13)</f>
         <v>365</v>
       </c>
       <c r="J14" s="1">
